--- a/data/trans_bre/P0901-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P0901-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,08</t>
+          <t>13,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>46,51%</t>
+          <t>46,75%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,02; 18,67</t>
+          <t>9,08; 18,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,21; 69,41</t>
+          <t>27,28; 69,55</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>25,11%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 4,72</t>
+          <t>-1,24; 6,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 43,0</t>
+          <t>-6,8; 70,78</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>21,3%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 4,56</t>
+          <t>-1,11; 4,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 72,46</t>
+          <t>-12,44; 73,66</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,06</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,98%</t>
+          <t>45,77%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,77; 7,9</t>
+          <t>2,57; 8,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,42; 59,97</t>
+          <t>19,95; 78,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P0901-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P0901-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,93; 12,76</t>
+          <t>5,68; 12,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,52; 16,38</t>
+          <t>8,68; 16,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,16; 18,34</t>
+          <t>9,68; 18,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,08; 18,61</t>
+          <t>8,9; 18,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,71; 81,87</t>
+          <t>29,55; 80,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,31; 72,44</t>
+          <t>32,44; 74,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,51; 87,66</t>
+          <t>38,05; 87,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,28; 69,55</t>
+          <t>27,68; 70,01</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 6,54</t>
+          <t>2,79; 6,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 6,61</t>
+          <t>2,44; 6,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 8,0</t>
+          <t>3,91; 7,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 6,02</t>
+          <t>-1,04; 6,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,76; 132,85</t>
+          <t>44,11; 134,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,86; 102,85</t>
+          <t>30,39; 101,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>50,43; 123,19</t>
+          <t>49,41; 122,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 70,78</t>
+          <t>-7,42; 74,26</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 8,27</t>
+          <t>1,24; 8,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 5,47</t>
+          <t>-1,95; 5,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 8,14</t>
+          <t>1,25; 8,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 4,54</t>
+          <t>-1,45; 4,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,12; 261,48</t>
+          <t>17,58; 240,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 118,45</t>
+          <t>-23,93; 129,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,83; 205,03</t>
+          <t>16,87; 199,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 73,66</t>
+          <t>-16,13; 73,35</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,0</t>
+          <t>5,74; 8,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,89; 10,64</t>
+          <t>7,05; 10,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,11; 10,79</t>
+          <t>7,2; 10,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 8,86</t>
+          <t>2,56; 8,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>58,13; 109,02</t>
+          <t>57,89; 105,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,05; 94,7</t>
+          <t>55,22; 94,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,48; 112,01</t>
+          <t>63,19; 107,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,95; 78,98</t>
+          <t>20,7; 78,62</t>
         </is>
       </c>
     </row>
